--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3179224.2239154</v>
+        <v>3174971.744288776</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9075077423441</v>
+        <v>356.5717252093119</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548844</v>
+        <v>156.6862937548845</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607272</v>
+        <v>62.2260157260729</v>
       </c>
       <c r="S2" t="n">
-        <v>38.62359778485872</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>94.74077011328096</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031461</v>
+        <v>63.69429571031467</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.8084985387046</v>
       </c>
       <c r="S3" t="n">
-        <v>64.74357790520351</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
         <v>197.1557544486215</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.02274990271599</v>
+        <v>14.34522014008515</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>298.9634770875979</v>
+        <v>173.0538874079718</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.99319319707901</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>65.52699321158184</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.3570881064985</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>350.3156859061249</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>182.9377227717322</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>243.043214035986</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>37.01163236946537</v>
+        <v>32.27552175740432</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227934</v>
       </c>
       <c r="V16" t="n">
-        <v>139.9142662664076</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,10 +1897,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.51491006411133</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>145.4338103776663</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>46.15319674220996</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.8410052537953</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>177.9413471369465</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367401</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.07916359105417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>6.228861054224446</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.2342243404105</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701356</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.58522891595203</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2121.656412829317</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.693895888905</v>
+        <v>1724.574051325752</v>
       </c>
       <c r="D2" t="n">
-        <v>1752.693895888905</v>
+        <v>1366.308352719002</v>
       </c>
       <c r="E2" t="n">
-        <v>1366.905643290661</v>
+        <v>980.5201001207572</v>
       </c>
       <c r="F2" t="n">
-        <v>955.9197385010532</v>
+        <v>569.5341953311497</v>
       </c>
       <c r="G2" t="n">
-        <v>537.8313468421196</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237638</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297151</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710335</v>
+        <v>156.4961545710332</v>
       </c>
       <c r="K2" t="n">
-        <v>435.214835100501</v>
+        <v>435.2148351005003</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311637</v>
+        <v>833.2666318311628</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537224</v>
+        <v>1292.782497537223</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813642</v>
+        <v>1745.10181281364</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132811</v>
+        <v>2127.026478132809</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935765</v>
+        <v>2415.315960935763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648576</v>
+        <v>2554.587596648572</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309108</v>
+        <v>2491.733035309105</v>
       </c>
       <c r="S2" t="n">
-        <v>2452.719300172887</v>
+        <v>2312.716599815395</v>
       </c>
       <c r="T2" t="n">
-        <v>2452.719300172887</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="U2" t="n">
-        <v>2452.719300172887</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="V2" t="n">
-        <v>2121.656412829317</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="W2" t="n">
-        <v>2121.656412829317</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="X2" t="n">
-        <v>2121.656412829317</v>
+        <v>2093.536568266164</v>
       </c>
       <c r="Y2" t="n">
-        <v>2121.656412829317</v>
+        <v>2093.536568266164</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>840.2866238777542</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>665.8335945966272</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>516.899184935376</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>357.6617299299205</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>211.1271719568054</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>211.1271719568054</v>
       </c>
       <c r="H3" t="n">
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297151</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687508</v>
+        <v>120.1765123687506</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270541</v>
+        <v>364.8742147270536</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066742</v>
+        <v>598.1646481335546</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633823</v>
+        <v>1105.758028360703</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.6331296318</v>
+        <v>1642.492908358679</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908672</v>
+        <v>2067.084785635551</v>
       </c>
       <c r="P3" t="n">
-        <v>2547.994353427086</v>
+        <v>2390.854132153964</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648576</v>
+        <v>2554.587596648572</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648576</v>
+        <v>2500.235577922608</v>
       </c>
       <c r="S3" t="n">
-        <v>2489.190043208976</v>
+        <v>2340.824460973169</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2141.67723425739</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.86880706406</v>
+        <v>1913.503224828253</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1678.351116596511</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1424.113759868309</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1216.262259662776</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1008.501960897822</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.2083913453072</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="C4" t="n">
-        <v>201.2083913453072</v>
+        <v>496.0114324256107</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297151</v>
+        <v>345.8947930132749</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297151</v>
+        <v>197.9816994308818</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297151</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297151</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297151</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297151</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297151</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771861</v>
+        <v>101.0304570771858</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703269</v>
+        <v>220.4612409703265</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486096</v>
+        <v>356.7733802486089</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493197</v>
+        <v>495.2789379493189</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455638</v>
+        <v>607.1949427455628</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071402</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071402</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="R4" t="n">
-        <v>528.7783350177601</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="S4" t="n">
-        <v>528.7783350177601</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="T4" t="n">
-        <v>301.2313710450204</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="U4" t="n">
-        <v>301.2313710450204</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="V4" t="n">
-        <v>301.2313710450204</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="W4" t="n">
-        <v>301.2313710450204</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="X4" t="n">
-        <v>301.2313710450204</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="Y4" t="n">
-        <v>301.2313710450204</v>
+        <v>679.4377367071389</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.871489087404</v>
+        <v>1074.950683657689</v>
       </c>
       <c r="C5" t="n">
-        <v>883.9089721469927</v>
+        <v>1074.950683657689</v>
       </c>
       <c r="D5" t="n">
-        <v>883.9089721469927</v>
+        <v>1074.950683657689</v>
       </c>
       <c r="E5" t="n">
-        <v>883.9089721469927</v>
+        <v>1074.950683657689</v>
       </c>
       <c r="F5" t="n">
-        <v>472.9230673573852</v>
+        <v>663.9647788680816</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>489.1628723953828</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
@@ -4567,25 +4567,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>145.5387415807674</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>549.0058546008129</v>
       </c>
       <c r="L5" t="n">
-        <v>959.6534908014927</v>
+        <v>1101.819112847012</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1733.536923830324</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518883</v>
+        <v>1927.871136722306</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2098.040162039266</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2347.539466667867</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2347.539466667867</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>2016.476579324296</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="W5" t="n">
-        <v>2016.476579324296</v>
+        <v>1838.555773894581</v>
       </c>
       <c r="X5" t="n">
-        <v>1643.010821063216</v>
+        <v>1465.090015633501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1252.871489087404</v>
+        <v>1074.950683657689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
         <v>198.067621432882</v>
@@ -4646,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L6" t="n">
-        <v>840.6645106279626</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1474.843494407001</v>
+        <v>1247.297767139118</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.500236059666</v>
+        <v>1881.476750918157</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.936244812389</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.0344679097588</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>217.0344679097588</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>217.0344679097588</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>51.24678656800311</v>
@@ -4752,25 +4752,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>843.7411832797532</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>618.1119865921181</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>618.1119865921181</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>618.1119865921181</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>618.1119865921181</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="X7" t="n">
-        <v>390.1224356941008</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.0344679097588</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1935.292509403255</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C8" t="n">
-        <v>1935.292509403255</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D8" t="n">
-        <v>1577.026810796505</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E8" t="n">
-        <v>1191.238558198261</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>236.0323651253084</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1935.292509403255</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.292509403255</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4865,13 +4865,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4883,28 +4883,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.9577966591559</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>602.021613731249</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1288.364517594134</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>998.9473475571732</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>770.9577966591559</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>770.9577966591559</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,64 +5175,64 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2159.677058245683</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U13" t="n">
-        <v>1870.601831589881</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V13" t="n">
         <v>1870.601831589881</v>
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.913146516562</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W16" t="n">
-        <v>1440.495976479601</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.506425581584</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.7138464380538</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5545,13 +5545,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2431.291457252875</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2431.291457252875</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1922.614765620015</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5477693179085</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4311299055728</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5180363231797</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>464.5180363231797</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>665.5244698858705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>517.6113763034774</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>370.721428805567</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,16 +6481,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,34 +6718,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,34 +7429,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>212.1128490679857</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.34979150037578</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>73.79566163573838</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>178.7586225842976</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>206.1620907894546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378118</v>
+        <v>449.0750350374088</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>60.35797727397613</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>180.3938179578229</v>
+        <v>185.1299285698839</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="V16" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.86033664601035</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>20.09032791460257</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>171.2522535850783</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>31.68313303847356</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>74.19629618688151</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.5054897610406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312476</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.274728755</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161963</v>
+        <v>548460.0746161954</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299272</v>
+        <v>225009.9816299282</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245459</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.12928438</v>
+        <v>167098.1292843797</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243601528</v>
+        <v>498.7619243604161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198065</v>
+        <v>247452.3619198067</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26429,13 +26429,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.368461719634</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719668</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26447,7 +26447,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719627</v>
@@ -26459,7 +26459,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946025</v>
+        <v>80023.31371946019</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-157524.2016242155</v>
+        <v>-157524.2016242141</v>
       </c>
       <c r="C6" t="n">
-        <v>209575.9955621162</v>
+        <v>209575.995562115</v>
       </c>
       <c r="D6" t="n">
-        <v>200674.9031216324</v>
+        <v>200674.9031216319</v>
       </c>
       <c r="E6" t="n">
-        <v>90137.93481858291</v>
+        <v>89790.55556422575</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431287</v>
+        <v>597275.9971887715</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431283</v>
+        <v>597275.9971887716</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887721</v>
       </c>
       <c r="I6" t="n">
-        <v>597623.3764431282</v>
+        <v>597275.9971887716</v>
       </c>
       <c r="J6" t="n">
-        <v>430525.2471587483</v>
+        <v>430177.8679043919</v>
       </c>
       <c r="K6" t="n">
-        <v>597124.614518768</v>
+        <v>596777.2352644114</v>
       </c>
       <c r="L6" t="n">
-        <v>597623.3764431288</v>
+        <v>597275.9971887718</v>
       </c>
       <c r="M6" t="n">
-        <v>465016.0827142022</v>
+        <v>464668.7034598447</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431283</v>
+        <v>597275.9971887718</v>
       </c>
       <c r="O6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887716</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431288</v>
+        <v>597275.9971887721</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817387</v>
+        <v>347.063405981738</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621439</v>
+        <v>638.6468991621431</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26807,31 +26807,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817387</v>
+        <v>347.063405981738</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563264</v>
+        <v>246.4126943563271</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621439</v>
+        <v>638.6468991621431</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937894971</v>
+        <v>1.937932937895766</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621439</v>
+        <v>638.6468991621429</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894971</v>
+        <v>1.937932937895994</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621439</v>
+        <v>638.6468991621431</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894971</v>
+        <v>1.937932937895766</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>57.33578253303222</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>138.6026733539138</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10.28492299140619</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.8084985387045</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>93.07342787474128</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.80923027922131</v>
+        <v>165.4867600418522</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
@@ -27560,7 +27560,7 @@
         <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601734</v>
+        <v>49.11144063601743</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845184</v>
+        <v>33.75546894845196</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
         <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>113.9534268583389</v>
+        <v>239.863016537965</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.53999045278833</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.22756524559628</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>56.56035983558655</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>118.0808297906732</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>9.09442928784199</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-4.984739963240086e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790908</v>
+        <v>1.395229772790905</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059489</v>
+        <v>14.28889691059486</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552154</v>
+        <v>53.78959581552143</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284125</v>
+        <v>118.4183829284122</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106516</v>
+        <v>177.4784592106513</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697015</v>
+        <v>220.177722369701</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415718</v>
+        <v>244.9901398415712</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335139</v>
+        <v>248.9543364335134</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803243</v>
+        <v>235.0805203803238</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645488</v>
+        <v>200.6357853645483</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264743</v>
+        <v>150.669119126474</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507696</v>
+        <v>87.64310221507678</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747286</v>
+        <v>31.79379844747278</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392204</v>
+        <v>6.107618330392191</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232726</v>
+        <v>0.1116183818232724</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682682</v>
+        <v>0.7465137411682666</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809328</v>
+        <v>7.209751131809313</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110046</v>
+        <v>25.70233714110041</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502486</v>
+        <v>70.5291776250247</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832988</v>
+        <v>120.5455982832986</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426979</v>
+        <v>162.0884331426975</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600476</v>
+        <v>189.1495562600471</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821804</v>
+        <v>194.15578218218</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857677</v>
+        <v>177.6146092857674</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323862</v>
+        <v>142.5513827323859</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351438</v>
+        <v>95.29182422351418</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393863</v>
+        <v>46.34933561393854</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389304</v>
+        <v>13.86616532389301</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200168</v>
+        <v>3.008974246200161</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949135</v>
+        <v>0.04911274612949124</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736271</v>
+        <v>0.6258520435736258</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772798</v>
+        <v>5.564393623772785</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946872</v>
+        <v>18.82107781946868</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065543</v>
+        <v>44.24773948065534</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519047</v>
+        <v>72.71262833519032</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730091</v>
+        <v>93.04713018730071</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218228</v>
+        <v>98.10515261218207</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886248</v>
+        <v>95.77243135886226</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711597</v>
+        <v>88.46134157711579</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821393</v>
+        <v>75.69395988821375</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324254</v>
+        <v>52.40657430324243</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468326</v>
+        <v>28.1405837046832</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027857</v>
+        <v>10.90689425027855</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269133</v>
+        <v>2.674095095269128</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492515</v>
+        <v>0.03413738419492508</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32557,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2529048371032</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932938</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737999</v>
+        <v>106.4690935737997</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368358</v>
+        <v>281.5340207368355</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501646</v>
+        <v>402.0725219501642</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071315</v>
+        <v>464.157440107131</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489072</v>
+        <v>456.8881972489066</v>
       </c>
       <c r="O2" t="n">
-        <v>385.782490221383</v>
+        <v>385.7824902213824</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807619</v>
+        <v>291.2014977807614</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119295</v>
+        <v>140.6784199119292</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.782586298767</v>
+        <v>69.78258629876684</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215184</v>
+        <v>247.1693963215181</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662829</v>
+        <v>235.6469024308091</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880292</v>
+        <v>512.7205860880288</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424007</v>
+        <v>542.1564444424002</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180528</v>
+        <v>428.8806841180524</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579932</v>
+        <v>327.0397439579929</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.659841637868642</v>
+        <v>165.3873378733418</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930762</v>
+        <v>50.44313650930746</v>
       </c>
       <c r="L4" t="n">
-        <v>120.637155447617</v>
+        <v>120.6371554476168</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740229</v>
+        <v>137.6890295740226</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380911</v>
+        <v>139.9046037380909</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911556</v>
+        <v>113.0464694911555</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310741</v>
+        <v>72.97251915310724</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>95.24439900279222</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>319.4946385855635</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>344.7778463608626</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
+        <v>630.3854757996359</v>
+      </c>
+      <c r="N6" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="N6" t="n">
-        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35035,7 +35035,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>176.8386996048307</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35980,10 +35980,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>471.1188709150848</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>528.6559836563374</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884936</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3174971.744288776</v>
+        <v>3176732.274591562</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99.35051122185057</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>356.5717252093119</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548845</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.2260157260729</v>
+        <v>62.22601572607302</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>177.2262711387726</v>
       </c>
       <c r="T2" t="n">
         <v>216.9882312337392</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>94.74077011328096</v>
+        <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031467</v>
+        <v>63.69429571031471</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.8084985387046</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>104.0823265738753</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.34522014008515</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>159.7662681630159</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>173.0538874079718</v>
+        <v>322.7917252196366</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>65.52699321158184</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
@@ -1025,7 +1025,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>77.43213079320253</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>80.1236144585952</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>182.9377227717322</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>96.04906679049552</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>32.27552175740432</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>146.0535160667528</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>164.5981994227934</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>46.15319674220996</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>152.4905881546152</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>86.80636739625321</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2093.536568266164</v>
+        <v>1993.182516526919</v>
       </c>
       <c r="C2" t="n">
-        <v>1724.574051325752</v>
+        <v>1624.219999586507</v>
       </c>
       <c r="D2" t="n">
-        <v>1366.308352719002</v>
+        <v>1265.954300979757</v>
       </c>
       <c r="E2" t="n">
-        <v>980.5201001207572</v>
+        <v>880.1660483815125</v>
       </c>
       <c r="F2" t="n">
-        <v>569.5341953311497</v>
+        <v>469.1801435919049</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237639</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237639</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297145</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710332</v>
+        <v>156.496154571033</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005003</v>
+        <v>435.2148351005001</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311628</v>
+        <v>833.2666318311624</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537223</v>
+        <v>1292.782497537222</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.10181281364</v>
+        <v>1745.101812813639</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132809</v>
+        <v>2127.026478132807</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935763</v>
+        <v>2415.315960935761</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648572</v>
+        <v>2554.587596648571</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309105</v>
+        <v>2491.733035309103</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815395</v>
+        <v>2312.716599815393</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266162</v>
       </c>
       <c r="U2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266162</v>
       </c>
       <c r="V2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266162</v>
       </c>
       <c r="W2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266162</v>
       </c>
       <c r="X2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266162</v>
       </c>
       <c r="Y2" t="n">
-        <v>2093.536568266164</v>
+        <v>2093.536568266162</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238777542</v>
+        <v>988.652206113561</v>
       </c>
       <c r="C3" t="n">
-        <v>665.8335945966272</v>
+        <v>814.199176832434</v>
       </c>
       <c r="D3" t="n">
-        <v>516.899184935376</v>
+        <v>665.2647671711827</v>
       </c>
       <c r="E3" t="n">
-        <v>357.6617299299205</v>
+        <v>506.0273121657272</v>
       </c>
       <c r="F3" t="n">
-        <v>211.1271719568054</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="G3" t="n">
-        <v>211.1271719568054</v>
+        <v>221.515983059236</v>
       </c>
       <c r="H3" t="n">
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297145</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687506</v>
+        <v>120.1765123687505</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270536</v>
+        <v>364.8742147270533</v>
       </c>
       <c r="L3" t="n">
-        <v>598.1646481335546</v>
+        <v>755.3048694066729</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360703</v>
+        <v>1262.898249633821</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358679</v>
+        <v>1799.633129631797</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635551</v>
+        <v>2224.225006908669</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153964</v>
+        <v>2547.994353427081</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648572</v>
+        <v>2554.587596648571</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922608</v>
+        <v>2554.587596648571</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973169</v>
+        <v>2395.176479699132</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.67723425739</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828253</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596511</v>
+        <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868309</v>
+        <v>1572.479342104116</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662776</v>
+        <v>1364.627841898583</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897822</v>
+        <v>1156.867543133629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9476153535176</v>
+        <v>518.0576678556072</v>
       </c>
       <c r="C4" t="n">
-        <v>496.0114324256107</v>
+        <v>349.1214849277003</v>
       </c>
       <c r="D4" t="n">
-        <v>345.8947930132749</v>
+        <v>199.0048455153645</v>
       </c>
       <c r="E4" t="n">
-        <v>197.9816994308818</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297145</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297145</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297145</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297145</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297145</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771858</v>
+        <v>101.0304570771857</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703265</v>
+        <v>220.4612409703263</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486089</v>
+        <v>356.7733802486086</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493189</v>
+        <v>495.2789379493184</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455628</v>
+        <v>607.1949427455622</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071389</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071389</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071389</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071389</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071389</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071389</v>
+        <v>518.0576678556072</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071389</v>
+        <v>518.0576678556072</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071389</v>
+        <v>518.0576678556072</v>
       </c>
       <c r="X4" t="n">
-        <v>679.4377367071389</v>
+        <v>518.0576678556072</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.4377367071389</v>
+        <v>518.0576678556072</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1074.950683657689</v>
+        <v>1231.165721160861</v>
       </c>
       <c r="C5" t="n">
-        <v>1074.950683657689</v>
+        <v>862.2032042204489</v>
       </c>
       <c r="D5" t="n">
-        <v>1074.950683657689</v>
+        <v>503.9375056136984</v>
       </c>
       <c r="E5" t="n">
-        <v>1074.950683657689</v>
+        <v>503.9375056136984</v>
       </c>
       <c r="F5" t="n">
-        <v>663.9647788680816</v>
+        <v>496.992004864495</v>
       </c>
       <c r="G5" t="n">
-        <v>489.1628723953828</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>145.5387415807674</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>549.0058546008129</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>1101.819112847012</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>1733.536923830324</v>
+        <v>1660.479218810943</v>
       </c>
       <c r="N5" t="n">
-        <v>1927.871136722306</v>
+        <v>1854.813431702925</v>
       </c>
       <c r="O5" t="n">
-        <v>2098.040162039266</v>
+        <v>2024.982457019885</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2454.297503359179</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164695</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="V5" t="n">
-        <v>2191.324429164695</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.555773894581</v>
+        <v>1994.770811397752</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.090015633501</v>
+        <v>1621.305053136672</v>
       </c>
       <c r="Y5" t="n">
-        <v>1074.950683657689</v>
+        <v>1231.165721160861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857316</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046047</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433534</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378979</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647829</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>980.068017098858</v>
       </c>
       <c r="M6" t="n">
-        <v>1247.297767139118</v>
+        <v>1159.565353453463</v>
       </c>
       <c r="N6" t="n">
-        <v>1881.476750918157</v>
+        <v>1358.222095106128</v>
       </c>
       <c r="O6" t="n">
-        <v>2430.912759670879</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4673,25 +4673,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2463.013155273854</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2266.023859433942</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336231</v>
+        <v>2037.885071945108</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1802.732963713365</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1548.495606985163</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170754</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.6312924058</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="7">
@@ -4713,19 +4713,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>933.6727333395295</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>547.8844807412852</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0323651253084</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>790.7764984014354</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.9309660677</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4950,37 +4950,37 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>1028.490320362745</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>859.5541374348384</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>709.4374980225026</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>561.5244044401095</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>414.6344569421991</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2414.36154645157</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5372,13 +5372,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U16" t="n">
-        <v>1811.200273012738</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.515784806851</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.09861476989</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871873</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283425</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5597,19 +5597,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5904,10 +5904,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6132,64 +6132,64 @@
         <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
         <v>1051.338974243769</v>
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,16 +6302,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
         <v>1373.553594266881</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6709,31 +6709,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6742,10 +6742,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1569.732795130727</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7405,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7432,28 +7432,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,55 +7636,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>212.1128490679857</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>51.34979150037518</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.79566163573838</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>73.79566163573844</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>346.9737134873287</v>
       </c>
       <c r="M6" t="n">
-        <v>449.0750350374088</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>73.66059580999774</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.35797727397613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>69.47507150177333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>185.1299285698839</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>34.97276993489183</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>171.2522535850783</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>66.09406519747961</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161954</v>
+        <v>548460.0746161948</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299282</v>
+        <v>225009.9816299287</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167098.1292843797</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243604161</v>
+        <v>498.7619243604454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198067</v>
+        <v>247452.3619198069</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26447,10 +26447,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.36846171963</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26459,7 +26459,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719634</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946019</v>
+        <v>80023.31371946014</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-157524.2016242141</v>
+        <v>-157524.201624214</v>
       </c>
       <c r="C6" t="n">
-        <v>209575.995562115</v>
+        <v>209575.9955621148</v>
       </c>
       <c r="D6" t="n">
-        <v>200674.9031216319</v>
+        <v>200674.9031216325</v>
       </c>
       <c r="E6" t="n">
-        <v>89790.55556422575</v>
+        <v>90103.19689314728</v>
       </c>
       <c r="F6" t="n">
-        <v>597275.9971887715</v>
+        <v>597588.6385176933</v>
       </c>
       <c r="G6" t="n">
-        <v>597275.9971887716</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="H6" t="n">
-        <v>597275.9971887721</v>
+        <v>597588.638517693</v>
       </c>
       <c r="I6" t="n">
-        <v>597275.9971887716</v>
+        <v>597588.6385176933</v>
       </c>
       <c r="J6" t="n">
-        <v>430177.8679043919</v>
+        <v>430490.5092333129</v>
       </c>
       <c r="K6" t="n">
-        <v>596777.2352644114</v>
+        <v>597089.8765933324</v>
       </c>
       <c r="L6" t="n">
-        <v>597275.9971887718</v>
+        <v>597588.6385176932</v>
       </c>
       <c r="M6" t="n">
-        <v>464668.7034598447</v>
+        <v>464981.3447887663</v>
       </c>
       <c r="N6" t="n">
-        <v>597275.9971887718</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="O6" t="n">
-        <v>597275.9971887716</v>
+        <v>597588.6385176932</v>
       </c>
       <c r="P6" t="n">
-        <v>597275.9971887721</v>
+        <v>597588.6385176928</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981738</v>
+        <v>347.0634059817375</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621431</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,31 +26807,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981738</v>
+        <v>347.0634059817375</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563271</v>
+        <v>246.4126943563276</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621431</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937895766</v>
+        <v>1.937932937896107</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621429</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895994</v>
+        <v>1.937932937896107</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621431</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895766</v>
+        <v>1.937932937896107</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>283.38333044163</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.33578253303222</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10.28492299140619</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870466</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>93.07342787474613</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.4867600418522</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
@@ -27560,7 +27560,7 @@
         <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601743</v>
+        <v>49.11144063601749</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845196</v>
+        <v>33.75546894845203</v>
       </c>
       <c r="R4" t="n">
         <v>149.1528076724863</v>
@@ -27593,7 +27593,7 @@
         <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
-        <v>286.284891972296</v>
+        <v>126.5186238092801</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>239.863016537965</v>
+        <v>90.12517872630019</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>70.53999045278843</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>70.53999045278903</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>326.7524312831163</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>118.0808297906732</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.984739963240086e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790905</v>
+        <v>1.395229772790904</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059486</v>
+        <v>14.28889691059484</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552143</v>
+        <v>53.78959581552136</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284122</v>
+        <v>118.4183829284121</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106513</v>
+        <v>177.478459210651</v>
       </c>
       <c r="L2" t="n">
-        <v>220.177722369701</v>
+        <v>220.1777223697007</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415712</v>
+        <v>244.9901398415709</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335134</v>
+        <v>248.9543364335131</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803238</v>
+        <v>235.0805203803235</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645483</v>
+        <v>200.6357853645481</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.669119126474</v>
+        <v>150.6691191264738</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507678</v>
+        <v>87.64310221507667</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747278</v>
+        <v>31.79379844747275</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392191</v>
+        <v>6.107618330392183</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232724</v>
+        <v>0.1116183818232723</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682666</v>
+        <v>0.7465137411682656</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809313</v>
+        <v>7.209751131809303</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110041</v>
+        <v>25.70233714110038</v>
       </c>
       <c r="J3" t="n">
-        <v>70.5291776250247</v>
+        <v>70.52917762502462</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832986</v>
+        <v>120.5455982832984</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426975</v>
+        <v>162.0884331426973</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600471</v>
+        <v>189.1495562600469</v>
       </c>
       <c r="N3" t="n">
-        <v>194.15578218218</v>
+        <v>194.1557821821798</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857674</v>
+        <v>177.6146092857671</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323859</v>
+        <v>142.5513827323857</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351418</v>
+        <v>95.29182422351406</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393854</v>
+        <v>46.34933561393847</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389301</v>
+        <v>13.86616532389299</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200161</v>
+        <v>3.008974246200157</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949124</v>
+        <v>0.04911274612949118</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736258</v>
+        <v>0.6258520435736249</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772785</v>
+        <v>5.564393623772778</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946868</v>
+        <v>18.82107781946866</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065534</v>
+        <v>44.24773948065528</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519032</v>
+        <v>72.71262833519023</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730071</v>
+        <v>93.04713018730058</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218207</v>
+        <v>98.10515261218194</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886226</v>
+        <v>95.77243135886215</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711579</v>
+        <v>88.46134157711568</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821375</v>
+        <v>75.69395988821367</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324243</v>
+        <v>52.40657430324236</v>
       </c>
       <c r="R4" t="n">
-        <v>28.1405837046832</v>
+        <v>28.14058370468317</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027855</v>
+        <v>10.90689425027853</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269128</v>
+        <v>2.674095095269124</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492508</v>
+        <v>0.03413738419492503</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732306</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>671.2522281007816</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.012731199064</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737997</v>
+        <v>106.4690935737995</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368355</v>
+        <v>281.5340207368353</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501642</v>
+        <v>402.0725219501639</v>
       </c>
       <c r="M2" t="n">
-        <v>464.157440107131</v>
+        <v>464.1574401071307</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489066</v>
+        <v>456.8881972489063</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213824</v>
+        <v>385.7824902213821</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807614</v>
+        <v>291.2014977807612</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119292</v>
+        <v>140.678419911929</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876684</v>
+        <v>69.78258629876676</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215181</v>
+        <v>247.169396321518</v>
       </c>
       <c r="L3" t="n">
-        <v>235.6469024308091</v>
+        <v>394.3743986662823</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880288</v>
+        <v>512.7205860880285</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424002</v>
+        <v>542.1564444424</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180524</v>
+        <v>428.8806841180522</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579929</v>
+        <v>327.0397439579926</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733418</v>
+        <v>6.659841637867724</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930746</v>
+        <v>50.44313650930738</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476168</v>
+        <v>120.6371554476167</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740226</v>
+        <v>137.6890295740225</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380909</v>
+        <v>139.9046037380907</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911555</v>
+        <v>113.0464694911553</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310724</v>
+        <v>72.97251915310716</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>95.24439900279222</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
@@ -34956,7 +34956,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>109.1331566070466</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>485.5894690587368</v>
       </c>
       <c r="M6" t="n">
-        <v>630.3854757996359</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.8386996048307</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287862</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>528.6559836563372</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770457</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
